--- a/Modelos em Python/0 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/0 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.002768965420660675</v>
+        <v>0.002844820286884278</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009845621409382874</v>
+        <v>0.01009616804836005</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01206804088442373</v>
+        <v>0.01206426150389271</v>
       </c>
     </row>
     <row r="12">
